--- a/dados.xlsx
+++ b/dados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Casos Confirmados</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>Dia</t>
+  </si>
+  <si>
+    <t>Casos Diários</t>
+  </si>
+  <si>
+    <t>Casos Ativos</t>
   </si>
 </sst>
 </file>
@@ -383,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +408,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -419,8 +431,14 @@
       <c r="E2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -436,8 +454,14 @@
       <c r="E3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -453,8 +477,14 @@
       <c r="E4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -470,8 +500,14 @@
       <c r="E5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -487,8 +523,14 @@
       <c r="E6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -504,8 +546,14 @@
       <c r="E7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -521,8 +569,14 @@
       <c r="E8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -538,8 +592,14 @@
       <c r="E9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -555,8 +615,14 @@
       <c r="E10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -572,8 +638,14 @@
       <c r="E11">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -589,8 +661,14 @@
       <c r="E12">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -606,8 +684,14 @@
       <c r="E13">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -623,8 +707,14 @@
       <c r="E14">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -640,8 +730,14 @@
       <c r="E15">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -657,8 +753,14 @@
       <c r="E16">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -674,8 +776,14 @@
       <c r="E17">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -691,8 +799,14 @@
       <c r="E18">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -708,8 +822,14 @@
       <c r="E19">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -725,8 +845,14 @@
       <c r="E20">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -742,8 +868,14 @@
       <c r="E21">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -759,8 +891,14 @@
       <c r="E22">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -776,8 +914,14 @@
       <c r="E23">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -793,8 +937,14 @@
       <c r="E24">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -810,8 +960,14 @@
       <c r="E25">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -827,8 +983,14 @@
       <c r="E26">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -844,8 +1006,14 @@
       <c r="E27">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -861,8 +1029,14 @@
       <c r="E28">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -878,8 +1052,14 @@
       <c r="E29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -895,8 +1075,14 @@
       <c r="E30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -912,8 +1098,14 @@
       <c r="E31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -929,8 +1121,14 @@
       <c r="E32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -946,8 +1144,14 @@
       <c r="E33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -963,8 +1167,14 @@
       <c r="E34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -980,8 +1190,14 @@
       <c r="E35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -997,8 +1213,14 @@
       <c r="E36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1014,8 +1236,14 @@
       <c r="E37">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1031,8 +1259,14 @@
       <c r="E38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1048,8 +1282,14 @@
       <c r="E39">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1065,8 +1305,14 @@
       <c r="E40">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1082,8 +1328,14 @@
       <c r="E41">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>14</v>
+      </c>
+      <c r="G41">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1099,8 +1351,14 @@
       <c r="E42">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1116,8 +1374,14 @@
       <c r="E43">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1133,8 +1397,14 @@
       <c r="E44">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>11</v>
+      </c>
+      <c r="G44">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1150,8 +1420,14 @@
       <c r="E45">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1167,8 +1443,14 @@
       <c r="E46">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1184,8 +1466,14 @@
       <c r="E47">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1201,8 +1489,14 @@
       <c r="E48">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1218,8 +1512,14 @@
       <c r="E49">
         <v>21</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1235,8 +1535,14 @@
       <c r="E50">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1252,8 +1558,14 @@
       <c r="E51">
         <v>23</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1269,8 +1581,14 @@
       <c r="E52">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1286,8 +1604,14 @@
       <c r="E53">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1303,8 +1627,14 @@
       <c r="E54">
         <v>26</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1320,8 +1650,14 @@
       <c r="E55">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1337,8 +1673,14 @@
       <c r="E56">
         <v>28</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1354,8 +1696,14 @@
       <c r="E57">
         <v>29</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>13</v>
+      </c>
+      <c r="G57">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1371,8 +1719,14 @@
       <c r="E58">
         <v>30</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1388,8 +1742,14 @@
       <c r="E59">
         <v>31</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1405,8 +1765,14 @@
       <c r="E60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1422,8 +1788,14 @@
       <c r="E61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1439,8 +1811,14 @@
       <c r="E62">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1456,8 +1834,14 @@
       <c r="E63">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63">
+        <v>11</v>
+      </c>
+      <c r="G63">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1473,8 +1857,14 @@
       <c r="E64">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>12</v>
+      </c>
+      <c r="G64">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1490,8 +1880,14 @@
       <c r="E65">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1507,8 +1903,14 @@
       <c r="E66">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>13</v>
+      </c>
+      <c r="G66">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1524,8 +1926,14 @@
       <c r="E67">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1541,8 +1949,14 @@
       <c r="E68">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1558,8 +1972,14 @@
       <c r="E69">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69">
+        <v>17</v>
+      </c>
+      <c r="G69">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1575,8 +1995,14 @@
       <c r="E70">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>15</v>
+      </c>
+      <c r="G70">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1592,8 +2018,14 @@
       <c r="E71">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71">
+        <v>11</v>
+      </c>
+      <c r="G71">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1609,8 +2041,14 @@
       <c r="E72">
         <v>13</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1626,8 +2064,14 @@
       <c r="E73">
         <v>14</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73">
+        <v>6</v>
+      </c>
+      <c r="G73">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1643,8 +2087,14 @@
       <c r="E74">
         <v>15</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1660,8 +2110,14 @@
       <c r="E75">
         <v>16</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1677,8 +2133,14 @@
       <c r="E76">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1694,8 +2156,14 @@
       <c r="E77">
         <v>18</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77">
+        <v>12</v>
+      </c>
+      <c r="G77">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1711,8 +2179,14 @@
       <c r="E78">
         <v>19</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78">
+        <v>11</v>
+      </c>
+      <c r="G78">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1728,8 +2202,14 @@
       <c r="E79">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1745,8 +2225,14 @@
       <c r="E80">
         <v>21</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1762,8 +2248,14 @@
       <c r="E81">
         <v>22</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1779,8 +2271,14 @@
       <c r="E82">
         <v>23</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1796,8 +2294,14 @@
       <c r="E83">
         <v>24</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1813,8 +2317,14 @@
       <c r="E84">
         <v>25</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1830,8 +2340,14 @@
       <c r="E85">
         <v>26</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85">
+        <v>6</v>
+      </c>
+      <c r="G85">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1847,8 +2363,14 @@
       <c r="E86">
         <v>27</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1864,8 +2386,14 @@
       <c r="E87">
         <v>28</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1881,8 +2409,14 @@
       <c r="E88">
         <v>29</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1898,8 +2432,14 @@
       <c r="E89">
         <v>30</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1915,8 +2455,14 @@
       <c r="E90">
         <v>31</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90">
+        <v>6</v>
+      </c>
+      <c r="G90">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1932,8 +2478,14 @@
       <c r="E91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1949,8 +2501,14 @@
       <c r="E92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1966,8 +2524,14 @@
       <c r="E93">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93">
+        <v>6</v>
+      </c>
+      <c r="G93">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1983,8 +2547,14 @@
       <c r="E94">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2000,8 +2570,14 @@
       <c r="E95">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2017,8 +2593,14 @@
       <c r="E96">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2034,8 +2616,14 @@
       <c r="E97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2051,8 +2639,14 @@
       <c r="E98">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98">
+        <v>4</v>
+      </c>
+      <c r="G98">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2068,8 +2662,14 @@
       <c r="E99">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2085,8 +2685,14 @@
       <c r="E100">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2102,8 +2708,14 @@
       <c r="E101">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2119,8 +2731,14 @@
       <c r="E102">
         <v>12</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2136,8 +2754,14 @@
       <c r="E103">
         <v>13</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2153,8 +2777,14 @@
       <c r="E104">
         <v>14</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2170,8 +2800,14 @@
       <c r="E105">
         <v>15</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2187,8 +2823,14 @@
       <c r="E106">
         <v>16</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2204,8 +2846,14 @@
       <c r="E107">
         <v>17</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2221,8 +2869,14 @@
       <c r="E108">
         <v>18</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108">
+        <v>5</v>
+      </c>
+      <c r="G108">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2238,8 +2892,14 @@
       <c r="E109">
         <v>19</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2255,8 +2915,14 @@
       <c r="E110">
         <v>20</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2272,8 +2938,14 @@
       <c r="E111">
         <v>21</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111">
+        <v>5</v>
+      </c>
+      <c r="G111">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2289,8 +2961,14 @@
       <c r="E112">
         <v>22</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112">
+        <v>3</v>
+      </c>
+      <c r="G112">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2306,8 +2984,14 @@
       <c r="E113">
         <v>23</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113">
+        <v>6</v>
+      </c>
+      <c r="G113">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2323,8 +3007,14 @@
       <c r="E114">
         <v>24</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114">
+        <v>9</v>
+      </c>
+      <c r="G114">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2340,8 +3030,14 @@
       <c r="E115">
         <v>25</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115">
+        <v>10</v>
+      </c>
+      <c r="G115">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2357,8 +3053,14 @@
       <c r="E116">
         <v>26</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2374,8 +3076,14 @@
       <c r="E117">
         <v>27</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2391,8 +3099,14 @@
       <c r="E118">
         <v>28</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118">
+        <v>6</v>
+      </c>
+      <c r="G118">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2408,8 +3122,14 @@
       <c r="E119">
         <v>29</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119">
+        <v>5</v>
+      </c>
+      <c r="G119">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2425,8 +3145,14 @@
       <c r="E120">
         <v>30</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2442,8 +3168,14 @@
       <c r="E121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121">
+        <v>3</v>
+      </c>
+      <c r="G121">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2459,8 +3191,14 @@
       <c r="E122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122">
+        <v>5</v>
+      </c>
+      <c r="G122">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2476,8 +3214,14 @@
       <c r="E123">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2492,6 +3236,1185 @@
       </c>
       <c r="E124">
         <v>4</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>415</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <v>356</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125">
+        <v>5</v>
+      </c>
+      <c r="G125">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>417</v>
+      </c>
+      <c r="C126">
+        <v>10</v>
+      </c>
+      <c r="D126">
+        <v>368</v>
+      </c>
+      <c r="E126">
+        <v>6</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>421</v>
+      </c>
+      <c r="C127">
+        <v>10</v>
+      </c>
+      <c r="D127">
+        <v>375</v>
+      </c>
+      <c r="E127">
+        <v>7</v>
+      </c>
+      <c r="F127">
+        <v>4</v>
+      </c>
+      <c r="G127">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>424</v>
+      </c>
+      <c r="C128">
+        <v>10</v>
+      </c>
+      <c r="D128">
+        <v>379</v>
+      </c>
+      <c r="E128">
+        <v>8</v>
+      </c>
+      <c r="F128">
+        <v>3</v>
+      </c>
+      <c r="G128">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>434</v>
+      </c>
+      <c r="C129">
+        <v>10</v>
+      </c>
+      <c r="D129">
+        <v>382</v>
+      </c>
+      <c r="E129">
+        <v>9</v>
+      </c>
+      <c r="F129">
+        <v>10</v>
+      </c>
+      <c r="G129">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>434</v>
+      </c>
+      <c r="C130">
+        <v>10</v>
+      </c>
+      <c r="D130">
+        <v>382</v>
+      </c>
+      <c r="E130">
+        <v>10</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>434</v>
+      </c>
+      <c r="C131">
+        <v>10</v>
+      </c>
+      <c r="D131">
+        <v>382</v>
+      </c>
+      <c r="E131">
+        <v>11</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>434</v>
+      </c>
+      <c r="C132">
+        <v>10</v>
+      </c>
+      <c r="D132">
+        <v>382</v>
+      </c>
+      <c r="E132">
+        <v>12</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>438</v>
+      </c>
+      <c r="C133">
+        <v>10</v>
+      </c>
+      <c r="D133">
+        <v>385</v>
+      </c>
+      <c r="E133">
+        <v>13</v>
+      </c>
+      <c r="F133">
+        <v>4</v>
+      </c>
+      <c r="G133">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>438</v>
+      </c>
+      <c r="C134">
+        <v>10</v>
+      </c>
+      <c r="D134">
+        <v>385</v>
+      </c>
+      <c r="E134">
+        <v>14</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>443</v>
+      </c>
+      <c r="C135">
+        <v>10</v>
+      </c>
+      <c r="D135">
+        <v>394</v>
+      </c>
+      <c r="E135">
+        <v>15</v>
+      </c>
+      <c r="F135">
+        <v>5</v>
+      </c>
+      <c r="G135">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>446</v>
+      </c>
+      <c r="C136">
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>400</v>
+      </c>
+      <c r="E136">
+        <v>16</v>
+      </c>
+      <c r="F136">
+        <v>3</v>
+      </c>
+      <c r="G136">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>446</v>
+      </c>
+      <c r="C137">
+        <v>10</v>
+      </c>
+      <c r="D137">
+        <v>400</v>
+      </c>
+      <c r="E137">
+        <v>17</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>446</v>
+      </c>
+      <c r="C138">
+        <v>10</v>
+      </c>
+      <c r="D138">
+        <v>400</v>
+      </c>
+      <c r="E138">
+        <v>18</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>448</v>
+      </c>
+      <c r="C139">
+        <v>10</v>
+      </c>
+      <c r="D139">
+        <v>407</v>
+      </c>
+      <c r="E139">
+        <v>19</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+      <c r="G139">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>449</v>
+      </c>
+      <c r="C140">
+        <v>10</v>
+      </c>
+      <c r="D140">
+        <v>408</v>
+      </c>
+      <c r="E140">
+        <v>20</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>449</v>
+      </c>
+      <c r="C141">
+        <v>10</v>
+      </c>
+      <c r="D141">
+        <v>411</v>
+      </c>
+      <c r="E141">
+        <v>21</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>449</v>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+      <c r="D142">
+        <v>411</v>
+      </c>
+      <c r="E142">
+        <v>22</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>454</v>
+      </c>
+      <c r="C143">
+        <v>10</v>
+      </c>
+      <c r="D143">
+        <v>416</v>
+      </c>
+      <c r="E143">
+        <v>23</v>
+      </c>
+      <c r="F143">
+        <v>5</v>
+      </c>
+      <c r="G143">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>454</v>
+      </c>
+      <c r="C144">
+        <v>10</v>
+      </c>
+      <c r="D144">
+        <v>416</v>
+      </c>
+      <c r="E144">
+        <v>24</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>454</v>
+      </c>
+      <c r="C145">
+        <v>10</v>
+      </c>
+      <c r="D145">
+        <v>416</v>
+      </c>
+      <c r="E145">
+        <v>25</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>459</v>
+      </c>
+      <c r="C146">
+        <v>10</v>
+      </c>
+      <c r="D146">
+        <v>417</v>
+      </c>
+      <c r="E146">
+        <v>26</v>
+      </c>
+      <c r="F146">
+        <v>5</v>
+      </c>
+      <c r="G146">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>460</v>
+      </c>
+      <c r="C147">
+        <v>10</v>
+      </c>
+      <c r="D147">
+        <v>418</v>
+      </c>
+      <c r="E147">
+        <v>27</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>462</v>
+      </c>
+      <c r="C148">
+        <v>10</v>
+      </c>
+      <c r="D148">
+        <v>424</v>
+      </c>
+      <c r="E148">
+        <v>28</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+      <c r="G148">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>465</v>
+      </c>
+      <c r="C149">
+        <v>10</v>
+      </c>
+      <c r="D149">
+        <v>425</v>
+      </c>
+      <c r="E149">
+        <v>29</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="G149">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>465</v>
+      </c>
+      <c r="C150">
+        <v>10</v>
+      </c>
+      <c r="D150">
+        <v>425</v>
+      </c>
+      <c r="E150">
+        <v>30</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>465</v>
+      </c>
+      <c r="C151">
+        <v>10</v>
+      </c>
+      <c r="D151">
+        <v>425</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>465</v>
+      </c>
+      <c r="C152">
+        <v>10</v>
+      </c>
+      <c r="D152">
+        <v>425</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>470</v>
+      </c>
+      <c r="C153">
+        <v>10</v>
+      </c>
+      <c r="D153">
+        <v>431</v>
+      </c>
+      <c r="E153">
+        <v>3</v>
+      </c>
+      <c r="F153">
+        <v>5</v>
+      </c>
+      <c r="G153">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>473</v>
+      </c>
+      <c r="C154">
+        <v>10</v>
+      </c>
+      <c r="D154">
+        <v>433</v>
+      </c>
+      <c r="E154">
+        <v>4</v>
+      </c>
+      <c r="F154">
+        <v>3</v>
+      </c>
+      <c r="G154">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>477</v>
+      </c>
+      <c r="C155">
+        <v>10</v>
+      </c>
+      <c r="D155">
+        <v>436</v>
+      </c>
+      <c r="E155">
+        <v>5</v>
+      </c>
+      <c r="F155">
+        <v>4</v>
+      </c>
+      <c r="G155">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>481</v>
+      </c>
+      <c r="C156">
+        <v>10</v>
+      </c>
+      <c r="D156">
+        <v>437</v>
+      </c>
+      <c r="E156">
+        <v>6</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+      <c r="G156">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>481</v>
+      </c>
+      <c r="C157">
+        <v>10</v>
+      </c>
+      <c r="D157">
+        <v>437</v>
+      </c>
+      <c r="E157">
+        <v>7</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>481</v>
+      </c>
+      <c r="C158">
+        <v>10</v>
+      </c>
+      <c r="D158">
+        <v>427</v>
+      </c>
+      <c r="E158">
+        <v>8</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>485</v>
+      </c>
+      <c r="C159">
+        <v>10</v>
+      </c>
+      <c r="D159">
+        <v>440</v>
+      </c>
+      <c r="E159">
+        <v>9</v>
+      </c>
+      <c r="F159">
+        <v>4</v>
+      </c>
+      <c r="G159">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>493</v>
+      </c>
+      <c r="C160">
+        <v>10</v>
+      </c>
+      <c r="D160">
+        <v>441</v>
+      </c>
+      <c r="E160">
+        <v>10</v>
+      </c>
+      <c r="F160">
+        <v>8</v>
+      </c>
+      <c r="G160">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>496</v>
+      </c>
+      <c r="C161">
+        <v>10</v>
+      </c>
+      <c r="D161">
+        <v>444</v>
+      </c>
+      <c r="E161">
+        <v>11</v>
+      </c>
+      <c r="F161">
+        <v>3</v>
+      </c>
+      <c r="G161">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>496</v>
+      </c>
+      <c r="C162">
+        <v>10</v>
+      </c>
+      <c r="D162">
+        <v>446</v>
+      </c>
+      <c r="E162">
+        <v>12</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>499</v>
+      </c>
+      <c r="C163">
+        <v>10</v>
+      </c>
+      <c r="D163">
+        <v>450</v>
+      </c>
+      <c r="E163">
+        <v>13</v>
+      </c>
+      <c r="F163">
+        <v>3</v>
+      </c>
+      <c r="G163">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>499</v>
+      </c>
+      <c r="C164">
+        <v>10</v>
+      </c>
+      <c r="D164">
+        <v>450</v>
+      </c>
+      <c r="E164">
+        <v>14</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>499</v>
+      </c>
+      <c r="C165">
+        <v>10</v>
+      </c>
+      <c r="D165">
+        <v>450</v>
+      </c>
+      <c r="E165">
+        <v>15</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>502</v>
+      </c>
+      <c r="C166">
+        <v>10</v>
+      </c>
+      <c r="D166">
+        <v>455</v>
+      </c>
+      <c r="E166">
+        <v>16</v>
+      </c>
+      <c r="F166">
+        <v>3</v>
+      </c>
+      <c r="G166">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>505</v>
+      </c>
+      <c r="C167">
+        <v>10</v>
+      </c>
+      <c r="D167">
+        <v>457</v>
+      </c>
+      <c r="E167">
+        <v>17</v>
+      </c>
+      <c r="F167">
+        <v>3</v>
+      </c>
+      <c r="G167">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>506</v>
+      </c>
+      <c r="C168">
+        <v>10</v>
+      </c>
+      <c r="D168">
+        <v>459</v>
+      </c>
+      <c r="E168">
+        <v>18</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>508</v>
+      </c>
+      <c r="C169">
+        <v>11</v>
+      </c>
+      <c r="D169">
+        <v>462</v>
+      </c>
+      <c r="E169">
+        <v>19</v>
+      </c>
+      <c r="F169">
+        <v>2</v>
+      </c>
+      <c r="G169">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>509</v>
+      </c>
+      <c r="C170">
+        <v>11</v>
+      </c>
+      <c r="D170">
+        <v>465</v>
+      </c>
+      <c r="E170">
+        <v>20</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>509</v>
+      </c>
+      <c r="C171">
+        <v>11</v>
+      </c>
+      <c r="D171">
+        <v>465</v>
+      </c>
+      <c r="E171">
+        <v>21</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>509</v>
+      </c>
+      <c r="C172">
+        <v>11</v>
+      </c>
+      <c r="D172">
+        <v>465</v>
+      </c>
+      <c r="E172">
+        <v>22</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>516</v>
+      </c>
+      <c r="C173">
+        <v>11</v>
+      </c>
+      <c r="D173">
+        <v>466</v>
+      </c>
+      <c r="E173">
+        <v>23</v>
+      </c>
+      <c r="F173">
+        <v>7</v>
+      </c>
+      <c r="G173">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>521</v>
+      </c>
+      <c r="C174">
+        <v>11</v>
+      </c>
+      <c r="D174">
+        <v>468</v>
+      </c>
+      <c r="E174">
+        <v>24</v>
+      </c>
+      <c r="F174">
+        <v>5</v>
+      </c>
+      <c r="G174">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>524</v>
+      </c>
+      <c r="C175">
+        <v>11</v>
+      </c>
+      <c r="D175">
+        <v>469</v>
+      </c>
+      <c r="E175">
+        <v>25</v>
+      </c>
+      <c r="F175">
+        <v>3</v>
+      </c>
+      <c r="G175">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4417,6 +4417,1179 @@
         <v>44</v>
       </c>
     </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>528</v>
+      </c>
+      <c r="C176">
+        <v>11</v>
+      </c>
+      <c r="D176">
+        <v>473</v>
+      </c>
+      <c r="E176">
+        <v>26</v>
+      </c>
+      <c r="F176">
+        <v>4</v>
+      </c>
+      <c r="G176">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>532</v>
+      </c>
+      <c r="C177">
+        <v>11</v>
+      </c>
+      <c r="D177">
+        <v>473</v>
+      </c>
+      <c r="E177">
+        <v>27</v>
+      </c>
+      <c r="F177">
+        <v>4</v>
+      </c>
+      <c r="G177">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>532</v>
+      </c>
+      <c r="C178">
+        <v>11</v>
+      </c>
+      <c r="D178">
+        <v>473</v>
+      </c>
+      <c r="E178">
+        <v>28</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>532</v>
+      </c>
+      <c r="C179">
+        <v>11</v>
+      </c>
+      <c r="D179">
+        <v>473</v>
+      </c>
+      <c r="E179">
+        <v>29</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>534</v>
+      </c>
+      <c r="C180">
+        <v>11</v>
+      </c>
+      <c r="D180">
+        <v>475</v>
+      </c>
+      <c r="E180">
+        <v>30</v>
+      </c>
+      <c r="F180">
+        <v>2</v>
+      </c>
+      <c r="G180">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>535</v>
+      </c>
+      <c r="C181">
+        <v>11</v>
+      </c>
+      <c r="D181">
+        <v>477</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>538</v>
+      </c>
+      <c r="C182">
+        <v>11</v>
+      </c>
+      <c r="D182">
+        <v>479</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+      <c r="F182">
+        <v>3</v>
+      </c>
+      <c r="G182">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>539</v>
+      </c>
+      <c r="C183">
+        <v>11</v>
+      </c>
+      <c r="D183">
+        <v>482</v>
+      </c>
+      <c r="E183">
+        <v>3</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>545</v>
+      </c>
+      <c r="C184">
+        <v>11</v>
+      </c>
+      <c r="D184">
+        <v>487</v>
+      </c>
+      <c r="E184">
+        <v>4</v>
+      </c>
+      <c r="F184">
+        <v>6</v>
+      </c>
+      <c r="G184">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>545</v>
+      </c>
+      <c r="C185">
+        <v>11</v>
+      </c>
+      <c r="D185">
+        <v>487</v>
+      </c>
+      <c r="E185">
+        <v>5</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>545</v>
+      </c>
+      <c r="C186">
+        <v>11</v>
+      </c>
+      <c r="D186">
+        <v>487</v>
+      </c>
+      <c r="E186">
+        <v>6</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>545</v>
+      </c>
+      <c r="C187">
+        <v>11</v>
+      </c>
+      <c r="D187">
+        <v>487</v>
+      </c>
+      <c r="E187">
+        <v>7</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>545</v>
+      </c>
+      <c r="C188">
+        <v>11</v>
+      </c>
+      <c r="D188">
+        <v>487</v>
+      </c>
+      <c r="E188">
+        <v>8</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>556</v>
+      </c>
+      <c r="C189">
+        <v>11</v>
+      </c>
+      <c r="D189">
+        <v>492</v>
+      </c>
+      <c r="E189">
+        <v>9</v>
+      </c>
+      <c r="F189">
+        <v>11</v>
+      </c>
+      <c r="G189">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>570</v>
+      </c>
+      <c r="C190">
+        <v>11</v>
+      </c>
+      <c r="D190">
+        <v>493</v>
+      </c>
+      <c r="E190">
+        <v>10</v>
+      </c>
+      <c r="F190">
+        <v>14</v>
+      </c>
+      <c r="G190">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>579</v>
+      </c>
+      <c r="C191">
+        <v>11</v>
+      </c>
+      <c r="D191">
+        <v>497</v>
+      </c>
+      <c r="E191">
+        <v>11</v>
+      </c>
+      <c r="F191">
+        <v>9</v>
+      </c>
+      <c r="G191">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>579</v>
+      </c>
+      <c r="C192">
+        <v>11</v>
+      </c>
+      <c r="D192">
+        <v>497</v>
+      </c>
+      <c r="E192">
+        <v>12</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>579</v>
+      </c>
+      <c r="C193">
+        <v>11</v>
+      </c>
+      <c r="D193">
+        <v>497</v>
+      </c>
+      <c r="E193">
+        <v>13</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>592</v>
+      </c>
+      <c r="C194">
+        <v>11</v>
+      </c>
+      <c r="D194">
+        <v>500</v>
+      </c>
+      <c r="E194">
+        <v>14</v>
+      </c>
+      <c r="F194">
+        <v>13</v>
+      </c>
+      <c r="G194">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>602</v>
+      </c>
+      <c r="C195">
+        <v>11</v>
+      </c>
+      <c r="D195">
+        <v>502</v>
+      </c>
+      <c r="E195">
+        <v>15</v>
+      </c>
+      <c r="F195">
+        <v>10</v>
+      </c>
+      <c r="G195">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>616</v>
+      </c>
+      <c r="C196">
+        <v>11</v>
+      </c>
+      <c r="D196">
+        <v>512</v>
+      </c>
+      <c r="E196">
+        <v>16</v>
+      </c>
+      <c r="F196">
+        <v>14</v>
+      </c>
+      <c r="G196">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>622</v>
+      </c>
+      <c r="C197">
+        <v>11</v>
+      </c>
+      <c r="D197">
+        <v>516</v>
+      </c>
+      <c r="E197">
+        <v>17</v>
+      </c>
+      <c r="F197">
+        <v>6</v>
+      </c>
+      <c r="G197">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>634</v>
+      </c>
+      <c r="C198">
+        <v>11</v>
+      </c>
+      <c r="D198">
+        <v>527</v>
+      </c>
+      <c r="E198">
+        <v>18</v>
+      </c>
+      <c r="F198">
+        <v>12</v>
+      </c>
+      <c r="G198">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>634</v>
+      </c>
+      <c r="C199">
+        <v>11</v>
+      </c>
+      <c r="D199">
+        <v>527</v>
+      </c>
+      <c r="E199">
+        <v>19</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>634</v>
+      </c>
+      <c r="C200">
+        <v>11</v>
+      </c>
+      <c r="D200">
+        <v>527</v>
+      </c>
+      <c r="E200">
+        <v>20</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>659</v>
+      </c>
+      <c r="C201">
+        <v>12</v>
+      </c>
+      <c r="D201">
+        <v>531</v>
+      </c>
+      <c r="E201">
+        <v>21</v>
+      </c>
+      <c r="F201">
+        <v>25</v>
+      </c>
+      <c r="G201">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>684</v>
+      </c>
+      <c r="C202">
+        <v>12</v>
+      </c>
+      <c r="D202">
+        <v>538</v>
+      </c>
+      <c r="E202">
+        <v>22</v>
+      </c>
+      <c r="F202">
+        <v>25</v>
+      </c>
+      <c r="G202">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>699</v>
+      </c>
+      <c r="C203">
+        <v>12</v>
+      </c>
+      <c r="D203">
+        <v>560</v>
+      </c>
+      <c r="E203">
+        <v>23</v>
+      </c>
+      <c r="F203">
+        <v>15</v>
+      </c>
+      <c r="G203">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>699</v>
+      </c>
+      <c r="C204">
+        <v>12</v>
+      </c>
+      <c r="D204">
+        <v>560</v>
+      </c>
+      <c r="E204">
+        <v>24</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>699</v>
+      </c>
+      <c r="C205">
+        <v>12</v>
+      </c>
+      <c r="D205">
+        <v>560</v>
+      </c>
+      <c r="E205">
+        <v>25</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>699</v>
+      </c>
+      <c r="C206">
+        <v>12</v>
+      </c>
+      <c r="D206">
+        <v>560</v>
+      </c>
+      <c r="E206">
+        <v>26</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>699</v>
+      </c>
+      <c r="C207">
+        <v>12</v>
+      </c>
+      <c r="D207">
+        <v>560</v>
+      </c>
+      <c r="E207">
+        <v>27</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>733</v>
+      </c>
+      <c r="C208">
+        <v>12</v>
+      </c>
+      <c r="D208">
+        <v>571</v>
+      </c>
+      <c r="E208">
+        <v>28</v>
+      </c>
+      <c r="F208">
+        <v>34</v>
+      </c>
+      <c r="G208">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>748</v>
+      </c>
+      <c r="C209">
+        <v>12</v>
+      </c>
+      <c r="D209">
+        <v>585</v>
+      </c>
+      <c r="E209">
+        <v>29</v>
+      </c>
+      <c r="F209">
+        <v>15</v>
+      </c>
+      <c r="G209">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>769</v>
+      </c>
+      <c r="C210">
+        <v>12</v>
+      </c>
+      <c r="D210">
+        <v>610</v>
+      </c>
+      <c r="E210">
+        <v>30</v>
+      </c>
+      <c r="F210">
+        <v>21</v>
+      </c>
+      <c r="G210">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>769</v>
+      </c>
+      <c r="C211">
+        <v>12</v>
+      </c>
+      <c r="D211">
+        <v>610</v>
+      </c>
+      <c r="E211">
+        <v>31</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>769</v>
+      </c>
+      <c r="C212">
+        <v>12</v>
+      </c>
+      <c r="D212">
+        <v>610</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>769</v>
+      </c>
+      <c r="C213">
+        <v>12</v>
+      </c>
+      <c r="D213">
+        <v>610</v>
+      </c>
+      <c r="E213">
+        <v>2</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>769</v>
+      </c>
+      <c r="C214">
+        <v>12</v>
+      </c>
+      <c r="D214">
+        <v>610</v>
+      </c>
+      <c r="E214">
+        <v>3</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>789</v>
+      </c>
+      <c r="C215">
+        <v>12</v>
+      </c>
+      <c r="D215">
+        <v>610</v>
+      </c>
+      <c r="E215">
+        <v>4</v>
+      </c>
+      <c r="F215">
+        <v>20</v>
+      </c>
+      <c r="G215">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>806</v>
+      </c>
+      <c r="C216">
+        <v>12</v>
+      </c>
+      <c r="D216">
+        <v>639</v>
+      </c>
+      <c r="E216">
+        <v>5</v>
+      </c>
+      <c r="F216">
+        <v>17</v>
+      </c>
+      <c r="G216">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>819</v>
+      </c>
+      <c r="C217">
+        <v>12</v>
+      </c>
+      <c r="D217">
+        <v>643</v>
+      </c>
+      <c r="E217">
+        <v>6</v>
+      </c>
+      <c r="F217">
+        <v>13</v>
+      </c>
+      <c r="G217">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>845</v>
+      </c>
+      <c r="C218">
+        <v>12</v>
+      </c>
+      <c r="D218">
+        <v>648</v>
+      </c>
+      <c r="E218">
+        <v>7</v>
+      </c>
+      <c r="F218">
+        <v>26</v>
+      </c>
+      <c r="G218">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>875</v>
+      </c>
+      <c r="C219">
+        <v>12</v>
+      </c>
+      <c r="D219">
+        <v>663</v>
+      </c>
+      <c r="E219">
+        <v>8</v>
+      </c>
+      <c r="F219">
+        <v>30</v>
+      </c>
+      <c r="G219">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>886</v>
+      </c>
+      <c r="C220">
+        <v>13</v>
+      </c>
+      <c r="D220">
+        <v>666</v>
+      </c>
+      <c r="E220">
+        <v>9</v>
+      </c>
+      <c r="F220">
+        <v>11</v>
+      </c>
+      <c r="G220">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>887</v>
+      </c>
+      <c r="C221">
+        <v>13</v>
+      </c>
+      <c r="D221">
+        <v>666</v>
+      </c>
+      <c r="E221">
+        <v>10</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>904</v>
+      </c>
+      <c r="C222">
+        <v>15</v>
+      </c>
+      <c r="D222">
+        <v>669</v>
+      </c>
+      <c r="E222">
+        <v>11</v>
+      </c>
+      <c r="F222">
+        <v>17</v>
+      </c>
+      <c r="G222">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>944</v>
+      </c>
+      <c r="C223">
+        <v>15</v>
+      </c>
+      <c r="D223">
+        <v>679</v>
+      </c>
+      <c r="E223">
+        <v>12</v>
+      </c>
+      <c r="F223">
+        <v>40</v>
+      </c>
+      <c r="G223">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>959</v>
+      </c>
+      <c r="C224">
+        <v>15</v>
+      </c>
+      <c r="D224">
+        <v>696</v>
+      </c>
+      <c r="E224">
+        <v>13</v>
+      </c>
+      <c r="F224">
+        <v>15</v>
+      </c>
+      <c r="G224">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>980</v>
+      </c>
+      <c r="C225">
+        <v>15</v>
+      </c>
+      <c r="D225">
+        <v>703</v>
+      </c>
+      <c r="E225">
+        <v>14</v>
+      </c>
+      <c r="F225">
+        <v>21</v>
+      </c>
+      <c r="G225">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>1002</v>
+      </c>
+      <c r="C226">
+        <v>15</v>
+      </c>
+      <c r="D226">
+        <v>714</v>
+      </c>
+      <c r="E226">
+        <v>15</v>
+      </c>
+      <c r="F226">
+        <v>22</v>
+      </c>
+      <c r="G226">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G226"/>
+  <dimension ref="A1:G228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5590,6 +5590,52 @@
         <v>273</v>
       </c>
     </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>1009</v>
+      </c>
+      <c r="C227">
+        <v>15</v>
+      </c>
+      <c r="D227">
+        <v>715</v>
+      </c>
+      <c r="E227">
+        <v>16</v>
+      </c>
+      <c r="F227">
+        <v>7</v>
+      </c>
+      <c r="G227">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>1012</v>
+      </c>
+      <c r="C228">
+        <v>16</v>
+      </c>
+      <c r="D228">
+        <v>717</v>
+      </c>
+      <c r="E228">
+        <v>17</v>
+      </c>
+      <c r="F228">
+        <v>3</v>
+      </c>
+      <c r="G228">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G228"/>
+  <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5636,6 +5636,52 @@
         <v>279</v>
       </c>
     </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>1042</v>
+      </c>
+      <c r="C229">
+        <v>16</v>
+      </c>
+      <c r="D229">
+        <v>729</v>
+      </c>
+      <c r="E229">
+        <v>18</v>
+      </c>
+      <c r="F229">
+        <v>30</v>
+      </c>
+      <c r="G229">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>1085</v>
+      </c>
+      <c r="C230">
+        <v>16</v>
+      </c>
+      <c r="D230">
+        <v>747</v>
+      </c>
+      <c r="E230">
+        <v>19</v>
+      </c>
+      <c r="F230">
+        <v>43</v>
+      </c>
+      <c r="G230">
+        <v>322</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G230"/>
+  <dimension ref="A1:G241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5682,6 +5682,259 @@
         <v>322</v>
       </c>
     </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>1115</v>
+      </c>
+      <c r="C231">
+        <v>16</v>
+      </c>
+      <c r="D231">
+        <v>785</v>
+      </c>
+      <c r="E231">
+        <v>20</v>
+      </c>
+      <c r="F231">
+        <v>30</v>
+      </c>
+      <c r="G231">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>1159</v>
+      </c>
+      <c r="C232">
+        <v>17</v>
+      </c>
+      <c r="D232">
+        <v>795</v>
+      </c>
+      <c r="E232">
+        <v>21</v>
+      </c>
+      <c r="F232">
+        <v>44</v>
+      </c>
+      <c r="G232">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>1188</v>
+      </c>
+      <c r="C233">
+        <v>17</v>
+      </c>
+      <c r="D233">
+        <v>809</v>
+      </c>
+      <c r="E233">
+        <v>22</v>
+      </c>
+      <c r="F233">
+        <v>29</v>
+      </c>
+      <c r="G233">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>1193</v>
+      </c>
+      <c r="C234">
+        <v>18</v>
+      </c>
+      <c r="D234">
+        <v>813</v>
+      </c>
+      <c r="E234">
+        <v>23</v>
+      </c>
+      <c r="F234">
+        <v>5</v>
+      </c>
+      <c r="G234">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>1193</v>
+      </c>
+      <c r="C235">
+        <v>19</v>
+      </c>
+      <c r="D235">
+        <v>813</v>
+      </c>
+      <c r="E235">
+        <v>24</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>1228</v>
+      </c>
+      <c r="C236">
+        <v>19</v>
+      </c>
+      <c r="D236">
+        <v>830</v>
+      </c>
+      <c r="E236">
+        <v>25</v>
+      </c>
+      <c r="F236">
+        <v>35</v>
+      </c>
+      <c r="G236">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>1260</v>
+      </c>
+      <c r="C237">
+        <v>22</v>
+      </c>
+      <c r="D237">
+        <v>848</v>
+      </c>
+      <c r="E237">
+        <v>26</v>
+      </c>
+      <c r="F237">
+        <v>32</v>
+      </c>
+      <c r="G237">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>1278</v>
+      </c>
+      <c r="C238">
+        <v>22</v>
+      </c>
+      <c r="D238">
+        <v>865</v>
+      </c>
+      <c r="E238">
+        <v>27</v>
+      </c>
+      <c r="F238">
+        <v>18</v>
+      </c>
+      <c r="G238">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>1301</v>
+      </c>
+      <c r="C239">
+        <v>23</v>
+      </c>
+      <c r="D239">
+        <v>875</v>
+      </c>
+      <c r="E239">
+        <v>28</v>
+      </c>
+      <c r="F239">
+        <v>23</v>
+      </c>
+      <c r="G239">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>1326</v>
+      </c>
+      <c r="C240">
+        <v>24</v>
+      </c>
+      <c r="D240">
+        <v>924</v>
+      </c>
+      <c r="E240">
+        <v>29</v>
+      </c>
+      <c r="F240">
+        <v>25</v>
+      </c>
+      <c r="G240">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>1331</v>
+      </c>
+      <c r="C241">
+        <v>25</v>
+      </c>
+      <c r="D241">
+        <v>824</v>
+      </c>
+      <c r="E241">
+        <v>30</v>
+      </c>
+      <c r="F241">
+        <v>5</v>
+      </c>
+      <c r="G241">
+        <v>482</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G241"/>
+  <dimension ref="A1:G292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5923,7 +5923,7 @@
         <v>25</v>
       </c>
       <c r="D241">
-        <v>824</v>
+        <v>924</v>
       </c>
       <c r="E241">
         <v>30</v>
@@ -5932,7 +5932,1180 @@
         <v>5</v>
       </c>
       <c r="G241">
-        <v>482</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>1333</v>
+      </c>
+      <c r="C242">
+        <v>26</v>
+      </c>
+      <c r="D242">
+        <v>924</v>
+      </c>
+      <c r="E242">
+        <v>31</v>
+      </c>
+      <c r="F242">
+        <v>2</v>
+      </c>
+      <c r="G242">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>1351</v>
+      </c>
+      <c r="C243">
+        <v>27</v>
+      </c>
+      <c r="D243">
+        <v>948</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>18</v>
+      </c>
+      <c r="G243">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>1370</v>
+      </c>
+      <c r="C244">
+        <v>30</v>
+      </c>
+      <c r="D244">
+        <v>964</v>
+      </c>
+      <c r="E244">
+        <v>2</v>
+      </c>
+      <c r="F244">
+        <v>19</v>
+      </c>
+      <c r="G244">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>1380</v>
+      </c>
+      <c r="C245">
+        <v>31</v>
+      </c>
+      <c r="D245">
+        <v>992</v>
+      </c>
+      <c r="E245">
+        <v>3</v>
+      </c>
+      <c r="F245">
+        <v>10</v>
+      </c>
+      <c r="G245">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>1396</v>
+      </c>
+      <c r="C246">
+        <v>31</v>
+      </c>
+      <c r="D246">
+        <v>1005</v>
+      </c>
+      <c r="E246">
+        <v>4</v>
+      </c>
+      <c r="F246">
+        <v>16</v>
+      </c>
+      <c r="G246">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>1406</v>
+      </c>
+      <c r="C247">
+        <v>32</v>
+      </c>
+      <c r="D247">
+        <v>1032</v>
+      </c>
+      <c r="E247">
+        <v>5</v>
+      </c>
+      <c r="F247">
+        <v>10</v>
+      </c>
+      <c r="G247">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>1407</v>
+      </c>
+      <c r="C248">
+        <v>32</v>
+      </c>
+      <c r="D248">
+        <v>1032</v>
+      </c>
+      <c r="E248">
+        <v>6</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>1408</v>
+      </c>
+      <c r="C249">
+        <v>32</v>
+      </c>
+      <c r="D249">
+        <v>1032</v>
+      </c>
+      <c r="E249">
+        <v>7</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>1424</v>
+      </c>
+      <c r="C250">
+        <v>32</v>
+      </c>
+      <c r="D250">
+        <v>1050</v>
+      </c>
+      <c r="E250">
+        <v>8</v>
+      </c>
+      <c r="F250">
+        <v>16</v>
+      </c>
+      <c r="G250">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>1434</v>
+      </c>
+      <c r="C251">
+        <v>32</v>
+      </c>
+      <c r="D251">
+        <v>1060</v>
+      </c>
+      <c r="E251">
+        <v>9</v>
+      </c>
+      <c r="F251">
+        <v>10</v>
+      </c>
+      <c r="G251">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>1443</v>
+      </c>
+      <c r="C252">
+        <v>33</v>
+      </c>
+      <c r="D252">
+        <v>1068</v>
+      </c>
+      <c r="E252">
+        <v>10</v>
+      </c>
+      <c r="F252">
+        <v>9</v>
+      </c>
+      <c r="G252">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>1451</v>
+      </c>
+      <c r="C253">
+        <v>33</v>
+      </c>
+      <c r="D253">
+        <v>1088</v>
+      </c>
+      <c r="E253">
+        <v>11</v>
+      </c>
+      <c r="F253">
+        <v>8</v>
+      </c>
+      <c r="G253">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>1458</v>
+      </c>
+      <c r="C254">
+        <v>33</v>
+      </c>
+      <c r="D254">
+        <v>1105</v>
+      </c>
+      <c r="E254">
+        <v>12</v>
+      </c>
+      <c r="F254">
+        <v>7</v>
+      </c>
+      <c r="G254">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>1458</v>
+      </c>
+      <c r="C255">
+        <v>34</v>
+      </c>
+      <c r="D255">
+        <v>1105</v>
+      </c>
+      <c r="E255">
+        <v>13</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>1464</v>
+      </c>
+      <c r="C256">
+        <v>34</v>
+      </c>
+      <c r="D256">
+        <v>1105</v>
+      </c>
+      <c r="E256">
+        <v>14</v>
+      </c>
+      <c r="F256">
+        <v>6</v>
+      </c>
+      <c r="G256">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>1478</v>
+      </c>
+      <c r="C257">
+        <v>34</v>
+      </c>
+      <c r="D257">
+        <v>1113</v>
+      </c>
+      <c r="E257">
+        <v>15</v>
+      </c>
+      <c r="F257">
+        <v>14</v>
+      </c>
+      <c r="G257">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>1478</v>
+      </c>
+      <c r="C258">
+        <v>34</v>
+      </c>
+      <c r="D258">
+        <v>1113</v>
+      </c>
+      <c r="E258">
+        <v>16</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>1487</v>
+      </c>
+      <c r="C259">
+        <v>34</v>
+      </c>
+      <c r="D259">
+        <v>1126</v>
+      </c>
+      <c r="E259">
+        <v>17</v>
+      </c>
+      <c r="F259">
+        <v>9</v>
+      </c>
+      <c r="G259">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>1489</v>
+      </c>
+      <c r="C260">
+        <v>34</v>
+      </c>
+      <c r="D260">
+        <v>1136</v>
+      </c>
+      <c r="E260">
+        <v>18</v>
+      </c>
+      <c r="F260">
+        <v>2</v>
+      </c>
+      <c r="G260">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>1496</v>
+      </c>
+      <c r="C261">
+        <v>34</v>
+      </c>
+      <c r="D261">
+        <v>1148</v>
+      </c>
+      <c r="E261">
+        <v>19</v>
+      </c>
+      <c r="F261">
+        <v>7</v>
+      </c>
+      <c r="G261">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>1497</v>
+      </c>
+      <c r="C262">
+        <v>34</v>
+      </c>
+      <c r="D262">
+        <v>1149</v>
+      </c>
+      <c r="E262">
+        <v>20</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>1497</v>
+      </c>
+      <c r="C263">
+        <v>34</v>
+      </c>
+      <c r="D263">
+        <v>1149</v>
+      </c>
+      <c r="E263">
+        <v>21</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>1512</v>
+      </c>
+      <c r="C264">
+        <v>34</v>
+      </c>
+      <c r="D264">
+        <v>1154</v>
+      </c>
+      <c r="E264">
+        <v>22</v>
+      </c>
+      <c r="F264">
+        <v>15</v>
+      </c>
+      <c r="G264">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>1518</v>
+      </c>
+      <c r="C265">
+        <v>34</v>
+      </c>
+      <c r="D265">
+        <v>1159</v>
+      </c>
+      <c r="E265">
+        <v>23</v>
+      </c>
+      <c r="F265">
+        <v>6</v>
+      </c>
+      <c r="G265">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>1524</v>
+      </c>
+      <c r="C266">
+        <v>35</v>
+      </c>
+      <c r="D266">
+        <v>1163</v>
+      </c>
+      <c r="E266">
+        <v>24</v>
+      </c>
+      <c r="F266">
+        <v>6</v>
+      </c>
+      <c r="G266">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>1526</v>
+      </c>
+      <c r="C267">
+        <v>35</v>
+      </c>
+      <c r="D267">
+        <v>1170</v>
+      </c>
+      <c r="E267">
+        <v>25</v>
+      </c>
+      <c r="F267">
+        <v>2</v>
+      </c>
+      <c r="G267">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>1537</v>
+      </c>
+      <c r="C268">
+        <v>36</v>
+      </c>
+      <c r="D268">
+        <v>1181</v>
+      </c>
+      <c r="E268">
+        <v>26</v>
+      </c>
+      <c r="F268">
+        <v>11</v>
+      </c>
+      <c r="G268">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>1539</v>
+      </c>
+      <c r="C269">
+        <v>36</v>
+      </c>
+      <c r="D269">
+        <v>1182</v>
+      </c>
+      <c r="E269">
+        <v>27</v>
+      </c>
+      <c r="F269">
+        <v>2</v>
+      </c>
+      <c r="G269">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>1539</v>
+      </c>
+      <c r="C270">
+        <v>37</v>
+      </c>
+      <c r="D270">
+        <v>1182</v>
+      </c>
+      <c r="E270">
+        <v>28</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>1549</v>
+      </c>
+      <c r="C271">
+        <v>37</v>
+      </c>
+      <c r="D271">
+        <v>1188</v>
+      </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271">
+        <v>10</v>
+      </c>
+      <c r="G271">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>1561</v>
+      </c>
+      <c r="C272">
+        <v>37</v>
+      </c>
+      <c r="D272">
+        <v>1208</v>
+      </c>
+      <c r="E272">
+        <v>2</v>
+      </c>
+      <c r="F272">
+        <v>12</v>
+      </c>
+      <c r="G272">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>1573</v>
+      </c>
+      <c r="C273">
+        <v>37</v>
+      </c>
+      <c r="D273">
+        <v>1241</v>
+      </c>
+      <c r="E273">
+        <v>3</v>
+      </c>
+      <c r="F273">
+        <v>12</v>
+      </c>
+      <c r="G273">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>1584</v>
+      </c>
+      <c r="C274">
+        <v>39</v>
+      </c>
+      <c r="D274">
+        <v>1265</v>
+      </c>
+      <c r="E274">
+        <v>4</v>
+      </c>
+      <c r="F274">
+        <v>11</v>
+      </c>
+      <c r="G274">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>1604</v>
+      </c>
+      <c r="C275">
+        <v>39</v>
+      </c>
+      <c r="D275">
+        <v>1280</v>
+      </c>
+      <c r="E275">
+        <v>5</v>
+      </c>
+      <c r="F275">
+        <v>20</v>
+      </c>
+      <c r="G275">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>1607</v>
+      </c>
+      <c r="C276">
+        <v>39</v>
+      </c>
+      <c r="D276">
+        <v>1285</v>
+      </c>
+      <c r="E276">
+        <v>6</v>
+      </c>
+      <c r="F276">
+        <v>3</v>
+      </c>
+      <c r="G276">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>1608</v>
+      </c>
+      <c r="C277">
+        <v>39</v>
+      </c>
+      <c r="D277">
+        <v>1285</v>
+      </c>
+      <c r="E277">
+        <v>7</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>1622</v>
+      </c>
+      <c r="C278">
+        <v>40</v>
+      </c>
+      <c r="D278">
+        <v>1294</v>
+      </c>
+      <c r="E278">
+        <v>8</v>
+      </c>
+      <c r="F278">
+        <v>14</v>
+      </c>
+      <c r="G278">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>1622</v>
+      </c>
+      <c r="C279">
+        <v>40</v>
+      </c>
+      <c r="D279">
+        <v>1294</v>
+      </c>
+      <c r="E279">
+        <v>9</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>1657</v>
+      </c>
+      <c r="C280">
+        <v>41</v>
+      </c>
+      <c r="D280">
+        <v>1322</v>
+      </c>
+      <c r="E280">
+        <v>10</v>
+      </c>
+      <c r="F280">
+        <v>35</v>
+      </c>
+      <c r="G280">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>1670</v>
+      </c>
+      <c r="C281">
+        <v>41</v>
+      </c>
+      <c r="D281">
+        <v>1343</v>
+      </c>
+      <c r="E281">
+        <v>11</v>
+      </c>
+      <c r="F281">
+        <v>13</v>
+      </c>
+      <c r="G281">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>1696</v>
+      </c>
+      <c r="C282">
+        <v>42</v>
+      </c>
+      <c r="D282">
+        <v>1366</v>
+      </c>
+      <c r="E282">
+        <v>12</v>
+      </c>
+      <c r="F282">
+        <v>26</v>
+      </c>
+      <c r="G282">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>1700</v>
+      </c>
+      <c r="C283">
+        <v>42</v>
+      </c>
+      <c r="D283">
+        <v>1366</v>
+      </c>
+      <c r="E283">
+        <v>13</v>
+      </c>
+      <c r="F283">
+        <v>4</v>
+      </c>
+      <c r="G283">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>1701</v>
+      </c>
+      <c r="C284">
+        <v>42</v>
+      </c>
+      <c r="D284">
+        <v>1366</v>
+      </c>
+      <c r="E284">
+        <v>14</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>1731</v>
+      </c>
+      <c r="C285">
+        <v>42</v>
+      </c>
+      <c r="D285">
+        <v>1394</v>
+      </c>
+      <c r="E285">
+        <v>15</v>
+      </c>
+      <c r="F285">
+        <v>30</v>
+      </c>
+      <c r="G285">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>1768</v>
+      </c>
+      <c r="C286">
+        <v>42</v>
+      </c>
+      <c r="D286">
+        <v>1410</v>
+      </c>
+      <c r="E286">
+        <v>16</v>
+      </c>
+      <c r="F286">
+        <v>37</v>
+      </c>
+      <c r="G286">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>1768</v>
+      </c>
+      <c r="C287">
+        <v>42</v>
+      </c>
+      <c r="D287">
+        <v>1410</v>
+      </c>
+      <c r="E287">
+        <v>17</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>1801</v>
+      </c>
+      <c r="C288">
+        <v>44</v>
+      </c>
+      <c r="D288">
+        <v>1475</v>
+      </c>
+      <c r="E288">
+        <v>18</v>
+      </c>
+      <c r="F288">
+        <v>33</v>
+      </c>
+      <c r="G288">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>1855</v>
+      </c>
+      <c r="C289">
+        <v>44</v>
+      </c>
+      <c r="D289">
+        <v>1500</v>
+      </c>
+      <c r="E289">
+        <v>19</v>
+      </c>
+      <c r="F289">
+        <v>54</v>
+      </c>
+      <c r="G289">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>1862</v>
+      </c>
+      <c r="C290">
+        <v>44</v>
+      </c>
+      <c r="D290">
+        <v>1500</v>
+      </c>
+      <c r="E290">
+        <v>20</v>
+      </c>
+      <c r="F290">
+        <v>7</v>
+      </c>
+      <c r="G290">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>1862</v>
+      </c>
+      <c r="C291">
+        <v>44</v>
+      </c>
+      <c r="D291">
+        <v>1500</v>
+      </c>
+      <c r="E291">
+        <v>21</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>1898</v>
+      </c>
+      <c r="C292">
+        <v>45</v>
+      </c>
+      <c r="D292">
+        <v>1514</v>
+      </c>
+      <c r="E292">
+        <v>22</v>
+      </c>
+      <c r="F292">
+        <v>36</v>
+      </c>
+      <c r="G292">
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G292"/>
+  <dimension ref="A1:G435"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7108,6 +7108,3295 @@
         <v>339</v>
       </c>
     </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>1929</v>
+      </c>
+      <c r="C293">
+        <v>46</v>
+      </c>
+      <c r="D293">
+        <v>1530</v>
+      </c>
+      <c r="E293">
+        <v>23</v>
+      </c>
+      <c r="F293">
+        <v>31</v>
+      </c>
+      <c r="G293">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>1956</v>
+      </c>
+      <c r="C294">
+        <v>46</v>
+      </c>
+      <c r="D294">
+        <v>1546</v>
+      </c>
+      <c r="E294">
+        <v>24</v>
+      </c>
+      <c r="F294">
+        <v>27</v>
+      </c>
+      <c r="G294">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>1981</v>
+      </c>
+      <c r="C295">
+        <v>46</v>
+      </c>
+      <c r="D295">
+        <v>1565</v>
+      </c>
+      <c r="E295">
+        <v>25</v>
+      </c>
+      <c r="F295">
+        <v>25</v>
+      </c>
+      <c r="G295">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>1981</v>
+      </c>
+      <c r="C296">
+        <v>46</v>
+      </c>
+      <c r="D296">
+        <v>1565</v>
+      </c>
+      <c r="E296">
+        <v>26</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>2018</v>
+      </c>
+      <c r="C297">
+        <v>48</v>
+      </c>
+      <c r="D297">
+        <v>1583</v>
+      </c>
+      <c r="E297">
+        <v>27</v>
+      </c>
+      <c r="F297">
+        <v>37</v>
+      </c>
+      <c r="G297">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>2018</v>
+      </c>
+      <c r="C298">
+        <v>48</v>
+      </c>
+      <c r="D298">
+        <v>1583</v>
+      </c>
+      <c r="E298">
+        <v>28</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>2047</v>
+      </c>
+      <c r="C299">
+        <v>48</v>
+      </c>
+      <c r="D299">
+        <v>1593</v>
+      </c>
+      <c r="E299">
+        <v>29</v>
+      </c>
+      <c r="F299">
+        <v>29</v>
+      </c>
+      <c r="G299">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>2075</v>
+      </c>
+      <c r="C300">
+        <v>48</v>
+      </c>
+      <c r="D300">
+        <v>1622</v>
+      </c>
+      <c r="E300">
+        <v>30</v>
+      </c>
+      <c r="F300">
+        <v>28</v>
+      </c>
+      <c r="G300">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>2088</v>
+      </c>
+      <c r="C301">
+        <v>50</v>
+      </c>
+      <c r="D301">
+        <v>1655</v>
+      </c>
+      <c r="E301">
+        <v>31</v>
+      </c>
+      <c r="F301">
+        <v>13</v>
+      </c>
+      <c r="G301">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>2088</v>
+      </c>
+      <c r="C302">
+        <v>50</v>
+      </c>
+      <c r="D302">
+        <v>1655</v>
+      </c>
+      <c r="E302">
+        <v>1</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>2105</v>
+      </c>
+      <c r="C303">
+        <v>50</v>
+      </c>
+      <c r="D303">
+        <v>1679</v>
+      </c>
+      <c r="E303">
+        <v>2</v>
+      </c>
+      <c r="F303">
+        <v>17</v>
+      </c>
+      <c r="G303">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>2109</v>
+      </c>
+      <c r="C304">
+        <v>50</v>
+      </c>
+      <c r="D304">
+        <v>1683</v>
+      </c>
+      <c r="E304">
+        <v>3</v>
+      </c>
+      <c r="F304">
+        <v>4</v>
+      </c>
+      <c r="G304">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>2110</v>
+      </c>
+      <c r="C305">
+        <v>50</v>
+      </c>
+      <c r="D305">
+        <v>1687</v>
+      </c>
+      <c r="E305">
+        <v>4</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
+      </c>
+      <c r="G305">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>2121</v>
+      </c>
+      <c r="C306">
+        <v>50</v>
+      </c>
+      <c r="D306">
+        <v>1713</v>
+      </c>
+      <c r="E306">
+        <v>5</v>
+      </c>
+      <c r="F306">
+        <v>11</v>
+      </c>
+      <c r="G306">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>2132</v>
+      </c>
+      <c r="C307">
+        <v>50</v>
+      </c>
+      <c r="D307">
+        <v>1728</v>
+      </c>
+      <c r="E307">
+        <v>6</v>
+      </c>
+      <c r="F307">
+        <v>11</v>
+      </c>
+      <c r="G307">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>2136</v>
+      </c>
+      <c r="C308">
+        <v>50</v>
+      </c>
+      <c r="D308">
+        <v>1766</v>
+      </c>
+      <c r="E308">
+        <v>7</v>
+      </c>
+      <c r="F308">
+        <v>4</v>
+      </c>
+      <c r="G308">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>2141</v>
+      </c>
+      <c r="C309">
+        <v>51</v>
+      </c>
+      <c r="D309">
+        <v>1795</v>
+      </c>
+      <c r="E309">
+        <v>8</v>
+      </c>
+      <c r="F309">
+        <v>5</v>
+      </c>
+      <c r="G309">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>2151</v>
+      </c>
+      <c r="C310">
+        <v>51</v>
+      </c>
+      <c r="D310">
+        <v>1817</v>
+      </c>
+      <c r="E310">
+        <v>9</v>
+      </c>
+      <c r="F310">
+        <v>10</v>
+      </c>
+      <c r="G310">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>2151</v>
+      </c>
+      <c r="C311">
+        <v>53</v>
+      </c>
+      <c r="D311">
+        <v>1818</v>
+      </c>
+      <c r="E311">
+        <v>10</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>2151</v>
+      </c>
+      <c r="C312">
+        <v>53</v>
+      </c>
+      <c r="D312">
+        <v>1818</v>
+      </c>
+      <c r="E312">
+        <v>11</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>2157</v>
+      </c>
+      <c r="C313">
+        <v>53</v>
+      </c>
+      <c r="D313">
+        <v>1844</v>
+      </c>
+      <c r="E313">
+        <v>12</v>
+      </c>
+      <c r="F313">
+        <v>6</v>
+      </c>
+      <c r="G313">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>2163</v>
+      </c>
+      <c r="C314">
+        <v>53</v>
+      </c>
+      <c r="D314">
+        <v>1855</v>
+      </c>
+      <c r="E314">
+        <v>13</v>
+      </c>
+      <c r="F314">
+        <v>6</v>
+      </c>
+      <c r="G314">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>2166</v>
+      </c>
+      <c r="C315">
+        <v>53</v>
+      </c>
+      <c r="D315">
+        <v>1870</v>
+      </c>
+      <c r="E315">
+        <v>14</v>
+      </c>
+      <c r="F315">
+        <v>3</v>
+      </c>
+      <c r="G315">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>2170</v>
+      </c>
+      <c r="C316">
+        <v>53</v>
+      </c>
+      <c r="D316">
+        <v>1888</v>
+      </c>
+      <c r="E316">
+        <v>15</v>
+      </c>
+      <c r="F316">
+        <v>4</v>
+      </c>
+      <c r="G316">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>2178</v>
+      </c>
+      <c r="C317">
+        <v>54</v>
+      </c>
+      <c r="D317">
+        <v>1913</v>
+      </c>
+      <c r="E317">
+        <v>16</v>
+      </c>
+      <c r="F317">
+        <v>8</v>
+      </c>
+      <c r="G317">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>2178</v>
+      </c>
+      <c r="C318">
+        <v>54</v>
+      </c>
+      <c r="D318">
+        <v>1913</v>
+      </c>
+      <c r="E318">
+        <v>17</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>2178</v>
+      </c>
+      <c r="C319">
+        <v>54</v>
+      </c>
+      <c r="D319">
+        <v>1913</v>
+      </c>
+      <c r="E319">
+        <v>18</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>2185</v>
+      </c>
+      <c r="C320">
+        <v>54</v>
+      </c>
+      <c r="D320">
+        <v>1930</v>
+      </c>
+      <c r="E320">
+        <v>19</v>
+      </c>
+      <c r="F320">
+        <v>7</v>
+      </c>
+      <c r="G320">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>2189</v>
+      </c>
+      <c r="C321">
+        <v>54</v>
+      </c>
+      <c r="D321">
+        <v>1942</v>
+      </c>
+      <c r="E321">
+        <v>20</v>
+      </c>
+      <c r="F321">
+        <v>4</v>
+      </c>
+      <c r="G321">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>2189</v>
+      </c>
+      <c r="C322">
+        <v>54</v>
+      </c>
+      <c r="D322">
+        <v>1942</v>
+      </c>
+      <c r="E322">
+        <v>21</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+      <c r="G322">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>2195</v>
+      </c>
+      <c r="C323">
+        <v>54</v>
+      </c>
+      <c r="D323">
+        <v>1953</v>
+      </c>
+      <c r="E323">
+        <v>22</v>
+      </c>
+      <c r="F323">
+        <v>6</v>
+      </c>
+      <c r="G323">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>2200</v>
+      </c>
+      <c r="C324">
+        <v>54</v>
+      </c>
+      <c r="D324">
+        <v>1963</v>
+      </c>
+      <c r="E324">
+        <v>23</v>
+      </c>
+      <c r="F324">
+        <v>5</v>
+      </c>
+      <c r="G324">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>2204</v>
+      </c>
+      <c r="C325">
+        <v>55</v>
+      </c>
+      <c r="D325">
+        <v>1963</v>
+      </c>
+      <c r="E325">
+        <v>24</v>
+      </c>
+      <c r="F325">
+        <v>4</v>
+      </c>
+      <c r="G325">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>2204</v>
+      </c>
+      <c r="C326">
+        <v>55</v>
+      </c>
+      <c r="D326">
+        <v>1963</v>
+      </c>
+      <c r="E326">
+        <v>25</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>2217</v>
+      </c>
+      <c r="C327">
+        <v>55</v>
+      </c>
+      <c r="D327">
+        <v>1984</v>
+      </c>
+      <c r="E327">
+        <v>26</v>
+      </c>
+      <c r="F327">
+        <v>13</v>
+      </c>
+      <c r="G327">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>2221</v>
+      </c>
+      <c r="C328">
+        <v>55</v>
+      </c>
+      <c r="D328">
+        <v>2019</v>
+      </c>
+      <c r="E328">
+        <v>27</v>
+      </c>
+      <c r="F328">
+        <v>4</v>
+      </c>
+      <c r="G328">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>2224</v>
+      </c>
+      <c r="C329">
+        <v>55</v>
+      </c>
+      <c r="D329">
+        <v>2031</v>
+      </c>
+      <c r="E329">
+        <v>28</v>
+      </c>
+      <c r="F329">
+        <v>3</v>
+      </c>
+      <c r="G329">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>2226</v>
+      </c>
+      <c r="C330">
+        <v>55</v>
+      </c>
+      <c r="D330">
+        <v>2040</v>
+      </c>
+      <c r="E330">
+        <v>29</v>
+      </c>
+      <c r="F330">
+        <v>2</v>
+      </c>
+      <c r="G330">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>2237</v>
+      </c>
+      <c r="C331">
+        <v>55</v>
+      </c>
+      <c r="D331">
+        <v>2054</v>
+      </c>
+      <c r="E331">
+        <v>30</v>
+      </c>
+      <c r="F331">
+        <v>11</v>
+      </c>
+      <c r="G331">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>2237</v>
+      </c>
+      <c r="C332">
+        <v>55</v>
+      </c>
+      <c r="D332">
+        <v>2054</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>2237</v>
+      </c>
+      <c r="C333">
+        <v>55</v>
+      </c>
+      <c r="D333">
+        <v>2054</v>
+      </c>
+      <c r="E333">
+        <v>2</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>2258</v>
+      </c>
+      <c r="C334">
+        <v>55</v>
+      </c>
+      <c r="D334">
+        <v>2060</v>
+      </c>
+      <c r="E334">
+        <v>3</v>
+      </c>
+      <c r="F334">
+        <v>21</v>
+      </c>
+      <c r="G334">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>2271</v>
+      </c>
+      <c r="C335">
+        <v>55</v>
+      </c>
+      <c r="D335">
+        <v>2075</v>
+      </c>
+      <c r="E335">
+        <v>4</v>
+      </c>
+      <c r="F335">
+        <v>13</v>
+      </c>
+      <c r="G335">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>2289</v>
+      </c>
+      <c r="C336">
+        <v>55</v>
+      </c>
+      <c r="D336">
+        <v>2080</v>
+      </c>
+      <c r="E336">
+        <v>5</v>
+      </c>
+      <c r="F336">
+        <v>18</v>
+      </c>
+      <c r="G336">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>2300</v>
+      </c>
+      <c r="C337">
+        <v>55</v>
+      </c>
+      <c r="D337">
+        <v>2081</v>
+      </c>
+      <c r="E337">
+        <v>6</v>
+      </c>
+      <c r="F337">
+        <v>11</v>
+      </c>
+      <c r="G337">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>2320</v>
+      </c>
+      <c r="C338">
+        <v>55</v>
+      </c>
+      <c r="D338">
+        <v>2093</v>
+      </c>
+      <c r="E338">
+        <v>7</v>
+      </c>
+      <c r="F338">
+        <v>20</v>
+      </c>
+      <c r="G338">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>2325</v>
+      </c>
+      <c r="C339">
+        <v>55</v>
+      </c>
+      <c r="D339">
+        <v>2093</v>
+      </c>
+      <c r="E339">
+        <v>8</v>
+      </c>
+      <c r="F339">
+        <v>5</v>
+      </c>
+      <c r="G339">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>2333</v>
+      </c>
+      <c r="C340">
+        <v>55</v>
+      </c>
+      <c r="D340">
+        <v>2093</v>
+      </c>
+      <c r="E340">
+        <v>9</v>
+      </c>
+      <c r="F340">
+        <v>8</v>
+      </c>
+      <c r="G340">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>2357</v>
+      </c>
+      <c r="C341">
+        <v>56</v>
+      </c>
+      <c r="D341">
+        <v>2106</v>
+      </c>
+      <c r="E341">
+        <v>10</v>
+      </c>
+      <c r="F341">
+        <v>24</v>
+      </c>
+      <c r="G341">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>2384</v>
+      </c>
+      <c r="C342">
+        <v>56</v>
+      </c>
+      <c r="D342">
+        <v>2115</v>
+      </c>
+      <c r="E342">
+        <v>11</v>
+      </c>
+      <c r="F342">
+        <v>27</v>
+      </c>
+      <c r="G342">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>2403</v>
+      </c>
+      <c r="C343">
+        <v>56</v>
+      </c>
+      <c r="D343">
+        <v>2123</v>
+      </c>
+      <c r="E343">
+        <v>12</v>
+      </c>
+      <c r="F343">
+        <v>19</v>
+      </c>
+      <c r="G343">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>2433</v>
+      </c>
+      <c r="C344">
+        <v>56</v>
+      </c>
+      <c r="D344">
+        <v>2136</v>
+      </c>
+      <c r="E344">
+        <v>13</v>
+      </c>
+      <c r="F344">
+        <v>30</v>
+      </c>
+      <c r="G344">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>2470</v>
+      </c>
+      <c r="C345">
+        <v>57</v>
+      </c>
+      <c r="D345">
+        <v>2143</v>
+      </c>
+      <c r="E345">
+        <v>14</v>
+      </c>
+      <c r="F345">
+        <v>37</v>
+      </c>
+      <c r="G345">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>2480</v>
+      </c>
+      <c r="C346">
+        <v>57</v>
+      </c>
+      <c r="D346">
+        <v>2143</v>
+      </c>
+      <c r="E346">
+        <v>15</v>
+      </c>
+      <c r="F346">
+        <v>10</v>
+      </c>
+      <c r="G346">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>2480</v>
+      </c>
+      <c r="C347">
+        <v>57</v>
+      </c>
+      <c r="D347">
+        <v>2143</v>
+      </c>
+      <c r="E347">
+        <v>16</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>2514</v>
+      </c>
+      <c r="C348">
+        <v>58</v>
+      </c>
+      <c r="D348">
+        <v>2161</v>
+      </c>
+      <c r="E348">
+        <v>17</v>
+      </c>
+      <c r="F348">
+        <v>34</v>
+      </c>
+      <c r="G348">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>2547</v>
+      </c>
+      <c r="C349">
+        <v>58</v>
+      </c>
+      <c r="D349">
+        <v>2175</v>
+      </c>
+      <c r="E349">
+        <v>18</v>
+      </c>
+      <c r="F349">
+        <v>33</v>
+      </c>
+      <c r="G349">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>2569</v>
+      </c>
+      <c r="C350">
+        <v>58</v>
+      </c>
+      <c r="D350">
+        <v>2189</v>
+      </c>
+      <c r="E350">
+        <v>19</v>
+      </c>
+      <c r="F350">
+        <v>22</v>
+      </c>
+      <c r="G350">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>2589</v>
+      </c>
+      <c r="C351">
+        <v>58</v>
+      </c>
+      <c r="D351">
+        <v>2213</v>
+      </c>
+      <c r="E351">
+        <v>20</v>
+      </c>
+      <c r="F351">
+        <v>20</v>
+      </c>
+      <c r="G351">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>2628</v>
+      </c>
+      <c r="C352">
+        <v>58</v>
+      </c>
+      <c r="D352">
+        <v>2218</v>
+      </c>
+      <c r="E352">
+        <v>21</v>
+      </c>
+      <c r="F352">
+        <v>39</v>
+      </c>
+      <c r="G352">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>2634</v>
+      </c>
+      <c r="C353">
+        <v>58</v>
+      </c>
+      <c r="D353">
+        <v>2220</v>
+      </c>
+      <c r="E353">
+        <v>22</v>
+      </c>
+      <c r="F353">
+        <v>6</v>
+      </c>
+      <c r="G353">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>2634</v>
+      </c>
+      <c r="C354">
+        <v>58</v>
+      </c>
+      <c r="D354">
+        <v>2220</v>
+      </c>
+      <c r="E354">
+        <v>23</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>2663</v>
+      </c>
+      <c r="C355">
+        <v>60</v>
+      </c>
+      <c r="D355">
+        <v>2235</v>
+      </c>
+      <c r="E355">
+        <v>24</v>
+      </c>
+      <c r="F355">
+        <v>29</v>
+      </c>
+      <c r="G355">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>2717</v>
+      </c>
+      <c r="C356">
+        <v>60</v>
+      </c>
+      <c r="D356">
+        <v>2264</v>
+      </c>
+      <c r="E356">
+        <v>25</v>
+      </c>
+      <c r="F356">
+        <v>54</v>
+      </c>
+      <c r="G356">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>2742</v>
+      </c>
+      <c r="C357">
+        <v>60</v>
+      </c>
+      <c r="D357">
+        <v>2282</v>
+      </c>
+      <c r="E357">
+        <v>26</v>
+      </c>
+      <c r="F357">
+        <v>25</v>
+      </c>
+      <c r="G357">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>2773</v>
+      </c>
+      <c r="C358">
+        <v>60</v>
+      </c>
+      <c r="D358">
+        <v>2299</v>
+      </c>
+      <c r="E358">
+        <v>27</v>
+      </c>
+      <c r="F358">
+        <v>31</v>
+      </c>
+      <c r="G358">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>2802</v>
+      </c>
+      <c r="C359">
+        <v>60</v>
+      </c>
+      <c r="D359">
+        <v>2320</v>
+      </c>
+      <c r="E359">
+        <v>28</v>
+      </c>
+      <c r="F359">
+        <v>29</v>
+      </c>
+      <c r="G359">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>2812</v>
+      </c>
+      <c r="C360">
+        <v>60</v>
+      </c>
+      <c r="D360">
+        <v>2323</v>
+      </c>
+      <c r="E360">
+        <v>29</v>
+      </c>
+      <c r="F360">
+        <v>10</v>
+      </c>
+      <c r="G360">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>2813</v>
+      </c>
+      <c r="C361">
+        <v>60</v>
+      </c>
+      <c r="D361">
+        <v>2323</v>
+      </c>
+      <c r="E361">
+        <v>30</v>
+      </c>
+      <c r="F361">
+        <v>1</v>
+      </c>
+      <c r="G361">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>2856</v>
+      </c>
+      <c r="C362">
+        <v>60</v>
+      </c>
+      <c r="D362">
+        <v>2342</v>
+      </c>
+      <c r="E362">
+        <v>31</v>
+      </c>
+      <c r="F362">
+        <v>43</v>
+      </c>
+      <c r="G362">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>2903</v>
+      </c>
+      <c r="C363">
+        <v>60</v>
+      </c>
+      <c r="D363">
+        <v>2360</v>
+      </c>
+      <c r="E363">
+        <v>1</v>
+      </c>
+      <c r="F363">
+        <v>47</v>
+      </c>
+      <c r="G363">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>2935</v>
+      </c>
+      <c r="C364">
+        <v>60</v>
+      </c>
+      <c r="D364">
+        <v>2382</v>
+      </c>
+      <c r="E364">
+        <v>2</v>
+      </c>
+      <c r="F364">
+        <v>32</v>
+      </c>
+      <c r="G364">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>2954</v>
+      </c>
+      <c r="C365">
+        <v>60</v>
+      </c>
+      <c r="D365">
+        <v>2384</v>
+      </c>
+      <c r="E365">
+        <v>3</v>
+      </c>
+      <c r="F365">
+        <v>19</v>
+      </c>
+      <c r="G365">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>2985</v>
+      </c>
+      <c r="C366">
+        <v>60</v>
+      </c>
+      <c r="D366">
+        <v>2395</v>
+      </c>
+      <c r="E366">
+        <v>4</v>
+      </c>
+      <c r="F366">
+        <v>31</v>
+      </c>
+      <c r="G366">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>2992</v>
+      </c>
+      <c r="C367">
+        <v>60</v>
+      </c>
+      <c r="D367">
+        <v>2395</v>
+      </c>
+      <c r="E367">
+        <v>5</v>
+      </c>
+      <c r="F367">
+        <v>7</v>
+      </c>
+      <c r="G367">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>2992</v>
+      </c>
+      <c r="C368">
+        <v>60</v>
+      </c>
+      <c r="D368">
+        <v>2395</v>
+      </c>
+      <c r="E368">
+        <v>6</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>3037</v>
+      </c>
+      <c r="C369">
+        <v>61</v>
+      </c>
+      <c r="D369">
+        <v>2424</v>
+      </c>
+      <c r="E369">
+        <v>7</v>
+      </c>
+      <c r="F369">
+        <v>45</v>
+      </c>
+      <c r="G369">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>3088</v>
+      </c>
+      <c r="C370">
+        <v>63</v>
+      </c>
+      <c r="D370">
+        <v>2441</v>
+      </c>
+      <c r="E370">
+        <v>8</v>
+      </c>
+      <c r="F370">
+        <v>51</v>
+      </c>
+      <c r="G370">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>3114</v>
+      </c>
+      <c r="C371">
+        <v>63</v>
+      </c>
+      <c r="D371">
+        <v>2479</v>
+      </c>
+      <c r="E371">
+        <v>9</v>
+      </c>
+      <c r="F371">
+        <v>26</v>
+      </c>
+      <c r="G371">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>3149</v>
+      </c>
+      <c r="C372">
+        <v>63</v>
+      </c>
+      <c r="D372">
+        <v>2502</v>
+      </c>
+      <c r="E372">
+        <v>10</v>
+      </c>
+      <c r="F372">
+        <v>35</v>
+      </c>
+      <c r="G372">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>3192</v>
+      </c>
+      <c r="C373">
+        <v>63</v>
+      </c>
+      <c r="D373">
+        <v>2531</v>
+      </c>
+      <c r="E373">
+        <v>11</v>
+      </c>
+      <c r="F373">
+        <v>43</v>
+      </c>
+      <c r="G373">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>3198</v>
+      </c>
+      <c r="C374">
+        <v>65</v>
+      </c>
+      <c r="D374">
+        <v>2554</v>
+      </c>
+      <c r="E374">
+        <v>12</v>
+      </c>
+      <c r="F374">
+        <v>6</v>
+      </c>
+      <c r="G374">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>3207</v>
+      </c>
+      <c r="C375">
+        <v>65</v>
+      </c>
+      <c r="D375">
+        <v>2568</v>
+      </c>
+      <c r="E375">
+        <v>13</v>
+      </c>
+      <c r="F375">
+        <v>9</v>
+      </c>
+      <c r="G375">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>3243</v>
+      </c>
+      <c r="C376">
+        <v>65</v>
+      </c>
+      <c r="D376">
+        <v>2585</v>
+      </c>
+      <c r="E376">
+        <v>14</v>
+      </c>
+      <c r="F376">
+        <v>36</v>
+      </c>
+      <c r="G376">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>3281</v>
+      </c>
+      <c r="C377">
+        <v>65</v>
+      </c>
+      <c r="D377">
+        <v>2643</v>
+      </c>
+      <c r="E377">
+        <v>15</v>
+      </c>
+      <c r="F377">
+        <v>38</v>
+      </c>
+      <c r="G377">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>3331</v>
+      </c>
+      <c r="C378">
+        <v>68</v>
+      </c>
+      <c r="D378">
+        <v>2679</v>
+      </c>
+      <c r="E378">
+        <v>16</v>
+      </c>
+      <c r="F378">
+        <v>50</v>
+      </c>
+      <c r="G378">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>3365</v>
+      </c>
+      <c r="C379">
+        <v>69</v>
+      </c>
+      <c r="D379">
+        <v>2707</v>
+      </c>
+      <c r="E379">
+        <v>17</v>
+      </c>
+      <c r="F379">
+        <v>34</v>
+      </c>
+      <c r="G379">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>3399</v>
+      </c>
+      <c r="C380">
+        <v>72</v>
+      </c>
+      <c r="D380">
+        <v>2753</v>
+      </c>
+      <c r="E380">
+        <v>18</v>
+      </c>
+      <c r="F380">
+        <v>34</v>
+      </c>
+      <c r="G380">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>3406</v>
+      </c>
+      <c r="C381">
+        <v>72</v>
+      </c>
+      <c r="D381">
+        <v>2767</v>
+      </c>
+      <c r="E381">
+        <v>19</v>
+      </c>
+      <c r="F381">
+        <v>7</v>
+      </c>
+      <c r="G381">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>3406</v>
+      </c>
+      <c r="C382">
+        <v>72</v>
+      </c>
+      <c r="D382">
+        <v>2788</v>
+      </c>
+      <c r="E382">
+        <v>20</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+      <c r="G382">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>3450</v>
+      </c>
+      <c r="C383">
+        <v>72</v>
+      </c>
+      <c r="D383">
+        <v>2810</v>
+      </c>
+      <c r="E383">
+        <v>21</v>
+      </c>
+      <c r="F383">
+        <v>44</v>
+      </c>
+      <c r="G383">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>3450</v>
+      </c>
+      <c r="C384">
+        <v>72</v>
+      </c>
+      <c r="D384">
+        <v>2810</v>
+      </c>
+      <c r="E384">
+        <v>22</v>
+      </c>
+      <c r="F384">
+        <v>0</v>
+      </c>
+      <c r="G384">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>3511</v>
+      </c>
+      <c r="C385">
+        <v>72</v>
+      </c>
+      <c r="D385">
+        <v>2873</v>
+      </c>
+      <c r="E385">
+        <v>23</v>
+      </c>
+      <c r="F385">
+        <v>61</v>
+      </c>
+      <c r="G385">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>3530</v>
+      </c>
+      <c r="C386">
+        <v>72</v>
+      </c>
+      <c r="D386">
+        <v>2911</v>
+      </c>
+      <c r="E386">
+        <v>24</v>
+      </c>
+      <c r="F386">
+        <v>19</v>
+      </c>
+      <c r="G386">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>3568</v>
+      </c>
+      <c r="C387">
+        <v>73</v>
+      </c>
+      <c r="D387">
+        <v>2930</v>
+      </c>
+      <c r="E387">
+        <v>25</v>
+      </c>
+      <c r="F387">
+        <v>38</v>
+      </c>
+      <c r="G387">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>3573</v>
+      </c>
+      <c r="C388">
+        <v>73</v>
+      </c>
+      <c r="D388">
+        <v>2932</v>
+      </c>
+      <c r="E388">
+        <v>26</v>
+      </c>
+      <c r="F388">
+        <v>5</v>
+      </c>
+      <c r="G388">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>3574</v>
+      </c>
+      <c r="C389">
+        <v>73</v>
+      </c>
+      <c r="D389">
+        <v>2935</v>
+      </c>
+      <c r="E389">
+        <v>27</v>
+      </c>
+      <c r="F389">
+        <v>1</v>
+      </c>
+      <c r="G389">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>3600</v>
+      </c>
+      <c r="C390">
+        <v>74</v>
+      </c>
+      <c r="D390">
+        <v>2974</v>
+      </c>
+      <c r="E390">
+        <v>28</v>
+      </c>
+      <c r="F390">
+        <v>26</v>
+      </c>
+      <c r="G390">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>3624</v>
+      </c>
+      <c r="C391">
+        <v>74</v>
+      </c>
+      <c r="D391">
+        <v>3023</v>
+      </c>
+      <c r="E391">
+        <v>29</v>
+      </c>
+      <c r="F391">
+        <v>24</v>
+      </c>
+      <c r="G391">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>3652</v>
+      </c>
+      <c r="C392">
+        <v>75</v>
+      </c>
+      <c r="D392">
+        <v>3069</v>
+      </c>
+      <c r="E392">
+        <v>30</v>
+      </c>
+      <c r="F392">
+        <v>28</v>
+      </c>
+      <c r="G392">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>3652</v>
+      </c>
+      <c r="C393">
+        <v>75</v>
+      </c>
+      <c r="D393">
+        <v>3069</v>
+      </c>
+      <c r="E393">
+        <v>1</v>
+      </c>
+      <c r="F393">
+        <v>0</v>
+      </c>
+      <c r="G393">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>3694</v>
+      </c>
+      <c r="C394">
+        <v>76</v>
+      </c>
+      <c r="D394">
+        <v>3144</v>
+      </c>
+      <c r="E394">
+        <v>2</v>
+      </c>
+      <c r="F394">
+        <v>42</v>
+      </c>
+      <c r="G394">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>3700</v>
+      </c>
+      <c r="C395">
+        <v>76</v>
+      </c>
+      <c r="D395">
+        <v>3165</v>
+      </c>
+      <c r="E395">
+        <v>3</v>
+      </c>
+      <c r="F395">
+        <v>6</v>
+      </c>
+      <c r="G395">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>3702</v>
+      </c>
+      <c r="C396">
+        <v>76</v>
+      </c>
+      <c r="D396">
+        <v>3168</v>
+      </c>
+      <c r="E396">
+        <v>4</v>
+      </c>
+      <c r="F396">
+        <v>2</v>
+      </c>
+      <c r="G396">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>3720</v>
+      </c>
+      <c r="C397">
+        <v>77</v>
+      </c>
+      <c r="D397">
+        <v>3212</v>
+      </c>
+      <c r="E397">
+        <v>5</v>
+      </c>
+      <c r="F397">
+        <v>18</v>
+      </c>
+      <c r="G397">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>3735</v>
+      </c>
+      <c r="C398">
+        <v>77</v>
+      </c>
+      <c r="D398">
+        <v>3227</v>
+      </c>
+      <c r="E398">
+        <v>6</v>
+      </c>
+      <c r="F398">
+        <v>15</v>
+      </c>
+      <c r="G398">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>3747</v>
+      </c>
+      <c r="C399">
+        <v>77</v>
+      </c>
+      <c r="D399">
+        <v>3268</v>
+      </c>
+      <c r="E399">
+        <v>7</v>
+      </c>
+      <c r="F399">
+        <v>12</v>
+      </c>
+      <c r="G399">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>3757</v>
+      </c>
+      <c r="C400">
+        <v>78</v>
+      </c>
+      <c r="D400">
+        <v>3302</v>
+      </c>
+      <c r="E400">
+        <v>8</v>
+      </c>
+      <c r="F400">
+        <v>10</v>
+      </c>
+      <c r="G400">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>3772</v>
+      </c>
+      <c r="C401">
+        <v>78</v>
+      </c>
+      <c r="D401">
+        <v>3318</v>
+      </c>
+      <c r="E401">
+        <v>9</v>
+      </c>
+      <c r="F401">
+        <v>15</v>
+      </c>
+      <c r="G401">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>3772</v>
+      </c>
+      <c r="C402">
+        <v>78</v>
+      </c>
+      <c r="D402">
+        <v>3318</v>
+      </c>
+      <c r="E402">
+        <v>10</v>
+      </c>
+      <c r="F402">
+        <v>0</v>
+      </c>
+      <c r="G402">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>3781</v>
+      </c>
+      <c r="C403">
+        <v>79</v>
+      </c>
+      <c r="D403">
+        <v>3350</v>
+      </c>
+      <c r="E403">
+        <v>11</v>
+      </c>
+      <c r="F403">
+        <v>9</v>
+      </c>
+      <c r="G403">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>3798</v>
+      </c>
+      <c r="C404">
+        <v>79</v>
+      </c>
+      <c r="D404">
+        <v>3382</v>
+      </c>
+      <c r="E404">
+        <v>12</v>
+      </c>
+      <c r="F404">
+        <v>17</v>
+      </c>
+      <c r="G404">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>3809</v>
+      </c>
+      <c r="C405">
+        <v>79</v>
+      </c>
+      <c r="D405">
+        <v>3411</v>
+      </c>
+      <c r="E405">
+        <v>13</v>
+      </c>
+      <c r="F405">
+        <v>11</v>
+      </c>
+      <c r="G405">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>3819</v>
+      </c>
+      <c r="C406">
+        <v>79</v>
+      </c>
+      <c r="D406">
+        <v>3437</v>
+      </c>
+      <c r="E406">
+        <v>14</v>
+      </c>
+      <c r="F406">
+        <v>10</v>
+      </c>
+      <c r="G406">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>3828</v>
+      </c>
+      <c r="C407">
+        <v>80</v>
+      </c>
+      <c r="D407">
+        <v>3450</v>
+      </c>
+      <c r="E407">
+        <v>15</v>
+      </c>
+      <c r="F407">
+        <v>9</v>
+      </c>
+      <c r="G407">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>3828</v>
+      </c>
+      <c r="C408">
+        <v>80</v>
+      </c>
+      <c r="D408">
+        <v>3450</v>
+      </c>
+      <c r="E408">
+        <v>16</v>
+      </c>
+      <c r="F408">
+        <v>0</v>
+      </c>
+      <c r="G408">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>3828</v>
+      </c>
+      <c r="C409">
+        <v>80</v>
+      </c>
+      <c r="D409">
+        <v>3450</v>
+      </c>
+      <c r="E409">
+        <v>17</v>
+      </c>
+      <c r="F409">
+        <v>0</v>
+      </c>
+      <c r="G409">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>3828</v>
+      </c>
+      <c r="C410">
+        <v>80</v>
+      </c>
+      <c r="D410">
+        <v>3450</v>
+      </c>
+      <c r="E410">
+        <v>18</v>
+      </c>
+      <c r="F410">
+        <v>0</v>
+      </c>
+      <c r="G410">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>3867</v>
+      </c>
+      <c r="C411">
+        <v>80</v>
+      </c>
+      <c r="D411">
+        <v>3486</v>
+      </c>
+      <c r="E411">
+        <v>19</v>
+      </c>
+      <c r="F411">
+        <v>39</v>
+      </c>
+      <c r="G411">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>3870</v>
+      </c>
+      <c r="C412">
+        <v>80</v>
+      </c>
+      <c r="D412">
+        <v>3486</v>
+      </c>
+      <c r="E412">
+        <v>20</v>
+      </c>
+      <c r="F412">
+        <v>3</v>
+      </c>
+      <c r="G412">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>3889</v>
+      </c>
+      <c r="C413">
+        <v>80</v>
+      </c>
+      <c r="D413">
+        <v>3504</v>
+      </c>
+      <c r="E413">
+        <v>21</v>
+      </c>
+      <c r="F413">
+        <v>19</v>
+      </c>
+      <c r="G413">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>3908</v>
+      </c>
+      <c r="C414">
+        <v>80</v>
+      </c>
+      <c r="D414">
+        <v>3523</v>
+      </c>
+      <c r="E414">
+        <v>22</v>
+      </c>
+      <c r="F414">
+        <v>19</v>
+      </c>
+      <c r="G414">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>3921</v>
+      </c>
+      <c r="C415">
+        <v>80</v>
+      </c>
+      <c r="D415">
+        <v>3603</v>
+      </c>
+      <c r="E415">
+        <v>23</v>
+      </c>
+      <c r="F415">
+        <v>13</v>
+      </c>
+      <c r="G415">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>3927</v>
+      </c>
+      <c r="C416">
+        <v>80</v>
+      </c>
+      <c r="D416">
+        <v>3623</v>
+      </c>
+      <c r="E416">
+        <v>24</v>
+      </c>
+      <c r="F416">
+        <v>6</v>
+      </c>
+      <c r="G416">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>3928</v>
+      </c>
+      <c r="C417">
+        <v>80</v>
+      </c>
+      <c r="D417">
+        <v>3629</v>
+      </c>
+      <c r="E417">
+        <v>25</v>
+      </c>
+      <c r="F417">
+        <v>1</v>
+      </c>
+      <c r="G417">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>3928</v>
+      </c>
+      <c r="C418">
+        <v>80</v>
+      </c>
+      <c r="D418">
+        <v>3629</v>
+      </c>
+      <c r="E418">
+        <v>26</v>
+      </c>
+      <c r="F418">
+        <v>0</v>
+      </c>
+      <c r="G418">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>3968</v>
+      </c>
+      <c r="C419">
+        <v>80</v>
+      </c>
+      <c r="D419">
+        <v>3666</v>
+      </c>
+      <c r="E419">
+        <v>27</v>
+      </c>
+      <c r="F419">
+        <v>40</v>
+      </c>
+      <c r="G419">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <v>3988</v>
+      </c>
+      <c r="C420">
+        <v>81</v>
+      </c>
+      <c r="D420">
+        <v>3688</v>
+      </c>
+      <c r="E420">
+        <v>28</v>
+      </c>
+      <c r="F420">
+        <v>20</v>
+      </c>
+      <c r="G420">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <v>4006</v>
+      </c>
+      <c r="C421">
+        <v>81</v>
+      </c>
+      <c r="D421">
+        <v>3697</v>
+      </c>
+      <c r="E421">
+        <v>29</v>
+      </c>
+      <c r="F421">
+        <v>18</v>
+      </c>
+      <c r="G421">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <v>4018</v>
+      </c>
+      <c r="C422">
+        <v>81</v>
+      </c>
+      <c r="D422">
+        <v>3713</v>
+      </c>
+      <c r="E422">
+        <v>30</v>
+      </c>
+      <c r="F422">
+        <v>12</v>
+      </c>
+      <c r="G422">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423">
+        <v>4020</v>
+      </c>
+      <c r="C423">
+        <v>81</v>
+      </c>
+      <c r="D423">
+        <v>3723</v>
+      </c>
+      <c r="E423">
+        <v>31</v>
+      </c>
+      <c r="F423">
+        <v>2</v>
+      </c>
+      <c r="G423">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424">
+        <v>4020</v>
+      </c>
+      <c r="C424">
+        <v>81</v>
+      </c>
+      <c r="D424">
+        <v>3727</v>
+      </c>
+      <c r="E424">
+        <v>1</v>
+      </c>
+      <c r="F424">
+        <v>0</v>
+      </c>
+      <c r="G424">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <v>4049</v>
+      </c>
+      <c r="C425">
+        <v>81</v>
+      </c>
+      <c r="D425">
+        <v>3752</v>
+      </c>
+      <c r="E425">
+        <v>2</v>
+      </c>
+      <c r="F425">
+        <v>29</v>
+      </c>
+      <c r="G425">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <v>4049</v>
+      </c>
+      <c r="C426">
+        <v>81</v>
+      </c>
+      <c r="D426">
+        <v>3752</v>
+      </c>
+      <c r="E426">
+        <v>3</v>
+      </c>
+      <c r="F426">
+        <v>0</v>
+      </c>
+      <c r="G426">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427">
+        <v>4105</v>
+      </c>
+      <c r="C427">
+        <v>83</v>
+      </c>
+      <c r="D427">
+        <v>3783</v>
+      </c>
+      <c r="E427">
+        <v>4</v>
+      </c>
+      <c r="F427">
+        <v>56</v>
+      </c>
+      <c r="G427">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428">
+        <v>4132</v>
+      </c>
+      <c r="C428">
+        <v>83</v>
+      </c>
+      <c r="D428">
+        <v>3793</v>
+      </c>
+      <c r="E428">
+        <v>5</v>
+      </c>
+      <c r="F428">
+        <v>27</v>
+      </c>
+      <c r="G428">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <v>4161</v>
+      </c>
+      <c r="C429">
+        <v>83</v>
+      </c>
+      <c r="D429">
+        <v>3812</v>
+      </c>
+      <c r="E429">
+        <v>6</v>
+      </c>
+      <c r="F429">
+        <v>29</v>
+      </c>
+      <c r="G429">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <v>4163</v>
+      </c>
+      <c r="C430">
+        <v>83</v>
+      </c>
+      <c r="D430">
+        <v>3819</v>
+      </c>
+      <c r="E430">
+        <v>7</v>
+      </c>
+      <c r="F430">
+        <v>2</v>
+      </c>
+      <c r="G430">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431">
+        <v>4167</v>
+      </c>
+      <c r="C431">
+        <v>83</v>
+      </c>
+      <c r="D431">
+        <v>3828</v>
+      </c>
+      <c r="E431">
+        <v>8</v>
+      </c>
+      <c r="F431">
+        <v>4</v>
+      </c>
+      <c r="G431">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432">
+        <v>4208</v>
+      </c>
+      <c r="C432">
+        <v>84</v>
+      </c>
+      <c r="D432">
+        <v>3843</v>
+      </c>
+      <c r="E432">
+        <v>9</v>
+      </c>
+      <c r="F432">
+        <v>41</v>
+      </c>
+      <c r="G432">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433">
+        <v>4248</v>
+      </c>
+      <c r="C433">
+        <v>86</v>
+      </c>
+      <c r="D433">
+        <v>3866</v>
+      </c>
+      <c r="E433">
+        <v>10</v>
+      </c>
+      <c r="F433">
+        <v>40</v>
+      </c>
+      <c r="G433">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434">
+        <v>4272</v>
+      </c>
+      <c r="C434">
+        <v>86</v>
+      </c>
+      <c r="D434">
+        <v>3882</v>
+      </c>
+      <c r="E434">
+        <v>11</v>
+      </c>
+      <c r="F434">
+        <v>24</v>
+      </c>
+      <c r="G434">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435">
+        <v>4302</v>
+      </c>
+      <c r="C435">
+        <v>86</v>
+      </c>
+      <c r="D435">
+        <v>3899</v>
+      </c>
+      <c r="E435">
+        <v>12</v>
+      </c>
+      <c r="F435">
+        <v>30</v>
+      </c>
+      <c r="G435">
+        <v>317</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G435"/>
+  <dimension ref="A1:G447"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10397,6 +10397,282 @@
         <v>317</v>
       </c>
     </row>
+    <row r="436" spans="1:7">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <v>4339</v>
+      </c>
+      <c r="C436">
+        <v>86</v>
+      </c>
+      <c r="D436">
+        <v>3927</v>
+      </c>
+      <c r="E436">
+        <v>13</v>
+      </c>
+      <c r="F436">
+        <v>37</v>
+      </c>
+      <c r="G436">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <v>4347</v>
+      </c>
+      <c r="C437">
+        <v>87</v>
+      </c>
+      <c r="D437">
+        <v>3936</v>
+      </c>
+      <c r="E437">
+        <v>14</v>
+      </c>
+      <c r="F437">
+        <v>8</v>
+      </c>
+      <c r="G437">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438">
+        <v>4348</v>
+      </c>
+      <c r="C438">
+        <v>87</v>
+      </c>
+      <c r="D438">
+        <v>3940</v>
+      </c>
+      <c r="E438">
+        <v>15</v>
+      </c>
+      <c r="F438">
+        <v>1</v>
+      </c>
+      <c r="G438">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439">
+        <v>4379</v>
+      </c>
+      <c r="C439">
+        <v>87</v>
+      </c>
+      <c r="D439">
+        <v>3958</v>
+      </c>
+      <c r="E439">
+        <v>16</v>
+      </c>
+      <c r="F439">
+        <v>31</v>
+      </c>
+      <c r="G439">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <v>4416</v>
+      </c>
+      <c r="C440">
+        <v>87</v>
+      </c>
+      <c r="D440">
+        <v>3977</v>
+      </c>
+      <c r="E440">
+        <v>17</v>
+      </c>
+      <c r="F440">
+        <v>37</v>
+      </c>
+      <c r="G440">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <v>4456</v>
+      </c>
+      <c r="C441">
+        <v>87</v>
+      </c>
+      <c r="D441">
+        <v>3996</v>
+      </c>
+      <c r="E441">
+        <v>18</v>
+      </c>
+      <c r="F441">
+        <v>40</v>
+      </c>
+      <c r="G441">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>4483</v>
+      </c>
+      <c r="C442">
+        <v>87</v>
+      </c>
+      <c r="D442">
+        <v>4020</v>
+      </c>
+      <c r="E442">
+        <v>19</v>
+      </c>
+      <c r="F442">
+        <v>27</v>
+      </c>
+      <c r="G442">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>4520</v>
+      </c>
+      <c r="C443">
+        <v>88</v>
+      </c>
+      <c r="D443">
+        <v>4051</v>
+      </c>
+      <c r="E443">
+        <v>20</v>
+      </c>
+      <c r="F443">
+        <v>37</v>
+      </c>
+      <c r="G443">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>4530</v>
+      </c>
+      <c r="C444">
+        <v>88</v>
+      </c>
+      <c r="D444">
+        <v>4059</v>
+      </c>
+      <c r="E444">
+        <v>21</v>
+      </c>
+      <c r="F444">
+        <v>10</v>
+      </c>
+      <c r="G444">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>4537</v>
+      </c>
+      <c r="C445">
+        <v>89</v>
+      </c>
+      <c r="D445">
+        <v>4064</v>
+      </c>
+      <c r="E445">
+        <v>22</v>
+      </c>
+      <c r="F445">
+        <v>7</v>
+      </c>
+      <c r="G445">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>4574</v>
+      </c>
+      <c r="C446">
+        <v>89</v>
+      </c>
+      <c r="D446">
+        <v>4083</v>
+      </c>
+      <c r="E446">
+        <v>23</v>
+      </c>
+      <c r="F446">
+        <v>37</v>
+      </c>
+      <c r="G446">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>4645</v>
+      </c>
+      <c r="C447">
+        <v>90</v>
+      </c>
+      <c r="D447">
+        <v>4106</v>
+      </c>
+      <c r="E447">
+        <v>24</v>
+      </c>
+      <c r="F447">
+        <v>71</v>
+      </c>
+      <c r="G447">
+        <v>449</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
